--- a/tut05/output/0501EE02.xlsx
+++ b/tut05/output/0501EE02.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.795918367346939</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C6" t="n">
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>9.152173913043478</v>
+        <v>9.15</v>
       </c>
       <c r="E6" t="n">
-        <v>8.869565217391305</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>9.846153846153847</v>
+        <v>9.85</v>
       </c>
       <c r="G6" t="n">
-        <v>8.475</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>8.837209302325581</v>
+        <v>8.84</v>
       </c>
       <c r="I6" t="n">
-        <v>7.631578947368421</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.795918367346939</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>9.89247311827957</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>9.647482014388489</v>
+        <v>9.65</v>
       </c>
       <c r="E8" t="n">
-        <v>9.454054054054055</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>9.522321428571429</v>
+        <v>9.52</v>
       </c>
       <c r="G8" t="n">
-        <v>9.363636363636363</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>9.289902280130294</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>9.107246376811593</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
   </sheetData>
